--- a/data/trans_orig/P58-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P58-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37673</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26393</v>
+        <v>25667</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54006</v>
+        <v>54005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07625104817698375</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05341991004078184</v>
+        <v>0.0519510982453906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.109309385323325</v>
+        <v>0.1093085650344161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -765,19 +765,19 @@
         <v>41814</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28584</v>
+        <v>28556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58239</v>
+        <v>57096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08944340764335458</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06114383389630101</v>
+        <v>0.06108282739408485</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.124577698244261</v>
+        <v>0.122132903350936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -786,19 +786,19 @@
         <v>79487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61471</v>
+        <v>58758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100908</v>
+        <v>101490</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0826649253665115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06392874614406446</v>
+        <v>0.06110753202147357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1049429367304353</v>
+        <v>0.1055479416972198</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>28340</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17333</v>
+        <v>18024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43027</v>
+        <v>44288</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05736164113846991</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03508319419480928</v>
+        <v>0.03648064278938794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08708748794023526</v>
+        <v>0.08964084399064866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -836,19 +836,19 @@
         <v>22205</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13296</v>
+        <v>13396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33139</v>
+        <v>33816</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04749923361571748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0284418166183215</v>
+        <v>0.02865570264078486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07088781639262194</v>
+        <v>0.07233524119764488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -857,19 +857,19 @@
         <v>50546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37070</v>
+        <v>35573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68972</v>
+        <v>67787</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05256672398924746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03855201134659944</v>
+        <v>0.03699549000192441</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07173001399754544</v>
+        <v>0.07049718712328343</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>428051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>409487</v>
+        <v>408457</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>445258</v>
+        <v>445359</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8663873106845463</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8288141084063637</v>
+        <v>0.8267288682582966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9012156754936486</v>
+        <v>0.9014187277163607</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>436</v>
@@ -907,19 +907,19 @@
         <v>403470</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>383967</v>
+        <v>386161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>418543</v>
+        <v>419875</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8630573587409279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8213391381649929</v>
+        <v>0.8260332931903638</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8953006287842834</v>
+        <v>0.8981503425156638</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>894</v>
@@ -928,19 +928,19 @@
         <v>831521</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>804776</v>
+        <v>807220</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>853926</v>
+        <v>856088</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8647683506442411</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8369545767280739</v>
+        <v>0.8394964441599072</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8880698166670196</v>
+        <v>0.8903177144863006</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>47890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33123</v>
+        <v>33595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66230</v>
+        <v>65400</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06511362509530622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04503527021712955</v>
+        <v>0.04567771502064352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09004891248626337</v>
+        <v>0.08891999462497524</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1053,19 +1053,19 @@
         <v>68468</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50873</v>
+        <v>52935</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89569</v>
+        <v>91606</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1094616582740552</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08133294030349894</v>
+        <v>0.08462843519222979</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1431974308401507</v>
+        <v>0.1464537870565576</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>72</v>
@@ -1074,19 +1074,19 @@
         <v>116358</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92075</v>
+        <v>93597</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142142</v>
+        <v>142895</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08549553439580662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06765331990731101</v>
+        <v>0.06877183205287282</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.10444098514927</v>
+        <v>0.1049937552837532</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>79308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59716</v>
+        <v>58803</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>102663</v>
+        <v>101798</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1078301572484424</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08119269215607752</v>
+        <v>0.07995154094453641</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1395852220310725</v>
+        <v>0.1384090270883361</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -1124,19 +1124,19 @@
         <v>54901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41012</v>
+        <v>41051</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71301</v>
+        <v>70274</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08777188996402827</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06556707247315732</v>
+        <v>0.06563047269581181</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1139910868319427</v>
+        <v>0.1123490301233246</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>92</v>
@@ -1145,19 +1145,19 @@
         <v>134209</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>109632</v>
+        <v>108142</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>161522</v>
+        <v>162170</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09861157966534391</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08055327837927173</v>
+        <v>0.07945872428205988</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1186805513311926</v>
+        <v>0.1191569704649341</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>608291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>582422</v>
+        <v>582437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>633700</v>
+        <v>631934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8270562176562514</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7918839815708311</v>
+        <v>0.7919046786032919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8616031382404398</v>
+        <v>0.8592027023576376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>502</v>
@@ -1195,19 +1195,19 @@
         <v>502126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>478016</v>
+        <v>479565</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>525015</v>
+        <v>522178</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8027664517619165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7642217842452338</v>
+        <v>0.7666984969725389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8393601249506984</v>
+        <v>0.8348250499155103</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1128</v>
@@ -1216,19 +1216,19 @@
         <v>1110416</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1073325</v>
+        <v>1072973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1141684</v>
+        <v>1140744</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8158928859388495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7886399943983974</v>
+        <v>0.7883815537400914</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8388675372306208</v>
+        <v>0.8381769903903217</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>47060</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32054</v>
+        <v>32265</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63992</v>
+        <v>65865</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07368428511942532</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05018847212407489</v>
+        <v>0.05051886615059637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1001955820112252</v>
+        <v>0.1031282500233823</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1341,19 +1341,19 @@
         <v>66212</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49000</v>
+        <v>49182</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86603</v>
+        <v>86511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0959951189870677</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07104103397648261</v>
+        <v>0.07130423023350556</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1255587751753684</v>
+        <v>0.1254240786382324</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1362,19 +1362,19 @@
         <v>113272</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90259</v>
+        <v>90346</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>138946</v>
+        <v>139916</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08526862253432192</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06794499056469383</v>
+        <v>0.06801061697519048</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1045956960350078</v>
+        <v>0.1053255545565935</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>60699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45640</v>
+        <v>43030</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83035</v>
+        <v>80185</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09504017292845647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07146139595972147</v>
+        <v>0.06737510539910282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.130013362104832</v>
+        <v>0.1255512244864524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1412,19 +1412,19 @@
         <v>51133</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37624</v>
+        <v>38113</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64500</v>
+        <v>68056</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07413391331509887</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05454761511222943</v>
+        <v>0.05525673868351338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09351309415124957</v>
+        <v>0.09866831213900945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -1433,19 +1433,19 @@
         <v>111833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90049</v>
+        <v>88208</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137042</v>
+        <v>136309</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08418512524707851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06778691398711156</v>
+        <v>0.06640143640307375</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1031620211384909</v>
+        <v>0.1026104971590618</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>530908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>506387</v>
+        <v>506801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>550532</v>
+        <v>552986</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8312755419521182</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7928809292751151</v>
+        <v>0.7935288547858731</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8620009369120295</v>
+        <v>0.8658445594573986</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -1483,19 +1483,19 @@
         <v>572399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>551139</v>
+        <v>547945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>594044</v>
+        <v>593275</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8298709676978334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7990483517403307</v>
+        <v>0.7944178807275701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8612525179677923</v>
+        <v>0.860138249972913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1119</v>
@@ -1504,19 +1504,19 @@
         <v>1103308</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1069271</v>
+        <v>1069630</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1133740</v>
+        <v>1133732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8305462522185996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8049239173376688</v>
+        <v>0.8051944365952699</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8534552192069936</v>
+        <v>0.8534487869211723</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>41908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27257</v>
+        <v>28806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59598</v>
+        <v>59482</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08072470065310162</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05250377801812584</v>
+        <v>0.05548718371788641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1147994616770472</v>
+        <v>0.1145766421038589</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1629,19 +1629,19 @@
         <v>25923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15060</v>
+        <v>15412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40386</v>
+        <v>39994</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05027297057777813</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02920601920186392</v>
+        <v>0.02988821767252346</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07832137290620569</v>
+        <v>0.07756205134308468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1650,19 +1650,19 @@
         <v>67831</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51365</v>
+        <v>49935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89396</v>
+        <v>88719</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06555040812607094</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04963839894876857</v>
+        <v>0.04825578869315759</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08639068731183498</v>
+        <v>0.0857364736687837</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>36782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23588</v>
+        <v>24234</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53597</v>
+        <v>52382</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0708511494175805</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04543617938941964</v>
+        <v>0.04668077633111453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1032408445506991</v>
+        <v>0.1008996492795844</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -1700,19 +1700,19 @@
         <v>45636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32470</v>
+        <v>33092</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61899</v>
+        <v>60555</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08850279856856484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06297087892583562</v>
+        <v>0.0641760562750819</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1200423854293427</v>
+        <v>0.1174368781593733</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1721,19 +1721,19 @@
         <v>82418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65396</v>
+        <v>64577</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103222</v>
+        <v>104205</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07964707947275336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06319711972806559</v>
+        <v>0.06240593416176578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0997520970192272</v>
+        <v>0.1007019454110117</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>440457</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>418344</v>
+        <v>417990</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>460303</v>
+        <v>457950</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8484241499293179</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8058291660267998</v>
+        <v>0.8051468638422691</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8866532430524456</v>
+        <v>0.8821198257501616</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>447</v>
@@ -1771,19 +1771,19 @@
         <v>444083</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>423396</v>
+        <v>426835</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>459786</v>
+        <v>460074</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8612242308536571</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8211046939331779</v>
+        <v>0.8277744351836426</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8916766368048381</v>
+        <v>0.8922345892904551</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>883</v>
@@ -1792,19 +1792,19 @@
         <v>884540</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>854846</v>
+        <v>853773</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>908294</v>
+        <v>908340</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8548025124011757</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8261070010096687</v>
+        <v>0.8250692523853967</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8777578217068356</v>
+        <v>0.8778024165686836</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>14289</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7731</v>
+        <v>6492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25052</v>
+        <v>26223</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03695000487521293</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01999126324092554</v>
+        <v>0.01678846964365375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06478170433103332</v>
+        <v>0.06780959343511021</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1917,19 +1917,19 @@
         <v>15624</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7971</v>
+        <v>7779</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27813</v>
+        <v>27840</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03867576734428516</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01973179415754991</v>
+        <v>0.01925594777300888</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06884616054189173</v>
+        <v>0.06891212123820419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1938,19 +1938,19 @@
         <v>29913</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18682</v>
+        <v>18666</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45207</v>
+        <v>44833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03783173928112944</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02362710241774433</v>
+        <v>0.02360690235050523</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05717364913049224</v>
+        <v>0.0567009434657571</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>28769</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17345</v>
+        <v>17426</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41898</v>
+        <v>41123</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07439361467252199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04485288630376058</v>
+        <v>0.04506317262708109</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1083443148882041</v>
+        <v>0.1063409882301737</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -1988,19 +1988,19 @@
         <v>34999</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23990</v>
+        <v>24247</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47992</v>
+        <v>47562</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08663386356392651</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05938441836224401</v>
+        <v>0.06002047111661219</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1187950835801826</v>
+        <v>0.1177327916921353</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>47</v>
@@ -2009,19 +2009,19 @@
         <v>63768</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47956</v>
+        <v>48267</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>82886</v>
+        <v>83598</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08064745827959433</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06065074703422416</v>
+        <v>0.06104359455741508</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1048270846572094</v>
+        <v>0.1057268458901119</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>343652</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>328062</v>
+        <v>326951</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>357546</v>
+        <v>358405</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.888656380452265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.848341030365761</v>
+        <v>0.8454681426494102</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9245838055954471</v>
+        <v>0.926805830480573</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>357</v>
@@ -2059,19 +2059,19 @@
         <v>353363</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>337631</v>
+        <v>338352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>366200</v>
+        <v>368009</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8746903690917883</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.83574853035414</v>
+        <v>0.8375340099399577</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9064673721615311</v>
+        <v>0.9109460859314296</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>721</v>
@@ -2080,19 +2080,19 @@
         <v>697015</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>671530</v>
+        <v>673436</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>714525</v>
+        <v>715082</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8815208024392762</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.849289899936389</v>
+        <v>0.8517001133442716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9036663097842095</v>
+        <v>0.9043697663761312</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>9388</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3200</v>
+        <v>3177</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17394</v>
+        <v>18566</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03208594507055898</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01093627814050164</v>
+        <v>0.01085754978465271</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05944976788096622</v>
+        <v>0.0634550755728165</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8748</v>
+        <v>8737</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00850368273463485</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02550854877076003</v>
+        <v>0.02547589297001599</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2226,19 +2226,19 @@
         <v>12304</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4809</v>
+        <v>6099</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22594</v>
+        <v>24235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0193606213759261</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007567754415556178</v>
+        <v>0.009597391648224828</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0355523644451207</v>
+        <v>0.03813427186080012</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>22602</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12941</v>
+        <v>12962</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36347</v>
+        <v>35091</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07724863621206056</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0442297330750643</v>
+        <v>0.04430101475806933</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.124227202531177</v>
+        <v>0.1199365535944231</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2276,19 +2276,19 @@
         <v>26807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17331</v>
+        <v>17629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38654</v>
+        <v>37959</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07816918418422232</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05053813541270832</v>
+        <v>0.05140516388833118</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1127143282181446</v>
+        <v>0.1106898484718642</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -2297,19 +2297,19 @@
         <v>49409</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36098</v>
+        <v>35347</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65778</v>
+        <v>67316</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07774537697235442</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05680034623927031</v>
+        <v>0.05561963285246475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.103502669964978</v>
+        <v>0.1059235849450026</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>260594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>245572</v>
+        <v>246181</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>272045</v>
+        <v>271737</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8906654187173805</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8393230313922914</v>
+        <v>0.8414059633319405</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9298058859368429</v>
+        <v>0.928750458305644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>345</v>
@@ -2347,19 +2347,19 @@
         <v>313211</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>301091</v>
+        <v>301283</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>322833</v>
+        <v>322732</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9133271330811429</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8779849521847854</v>
+        <v>0.878544980890191</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9413849496599683</v>
+        <v>0.9410911741287964</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>628</v>
@@ -2368,19 +2368,19 @@
         <v>573804</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>556235</v>
+        <v>554623</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>588163</v>
+        <v>589487</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9028940016517195</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8752485884954408</v>
+        <v>0.8727107986876419</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9254876456741034</v>
+        <v>0.9275706107168133</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>6207</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1592</v>
+        <v>1556</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14772</v>
+        <v>14073</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02957504123514687</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007585746148851625</v>
+        <v>0.00741552526020243</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07038389141904171</v>
+        <v>0.06705092419298483</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12401</v>
+        <v>14135</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0109221693813401</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0371379087665345</v>
+        <v>0.04233140717638433</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2514,19 +2514,19 @@
         <v>9854</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3652</v>
+        <v>3472</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20786</v>
+        <v>20008</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01812148079661665</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006715528944287437</v>
+        <v>0.006385365276063196</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03822449575491726</v>
+        <v>0.03679330380518541</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>16455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8237</v>
+        <v>8228</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28088</v>
+        <v>28967</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07840184396356083</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03924602188638589</v>
+        <v>0.03920065164114152</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1338273618552557</v>
+        <v>0.1380138821064827</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2564,19 +2564,19 @@
         <v>13954</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6946</v>
+        <v>6980</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24672</v>
+        <v>23677</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04178971873421456</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02080144009639909</v>
+        <v>0.02090298106747336</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07388970296176887</v>
+        <v>0.07090836577813586</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -2585,19 +2585,19 @@
         <v>30409</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18433</v>
+        <v>19869</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>43796</v>
+        <v>46969</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05592063075500209</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03389765676838052</v>
+        <v>0.0365373789011519</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08053915790003015</v>
+        <v>0.08637259838846942</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>187220</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>175367</v>
+        <v>175353</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>196718</v>
+        <v>196790</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8920231148012923</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8355470614609641</v>
+        <v>0.8354802827367425</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9372728704437303</v>
+        <v>0.9376158073835397</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>277</v>
@@ -2635,19 +2635,19 @@
         <v>316307</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>305180</v>
+        <v>304406</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>324325</v>
+        <v>324275</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9472881118844454</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9139652508982752</v>
+        <v>0.9116461819894759</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9713010081197292</v>
+        <v>0.9711510772143453</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>482</v>
@@ -2656,19 +2656,19 @@
         <v>503528</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>487513</v>
+        <v>485098</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>516123</v>
+        <v>516415</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9259578884483812</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8965087988967155</v>
+        <v>0.892066857073967</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9491193184488658</v>
+        <v>0.9496571924625232</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>204415</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>175187</v>
+        <v>168200</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>243006</v>
+        <v>238033</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06238740062729376</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05346713267501402</v>
+        <v>0.05133459321319873</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07416544452589145</v>
+        <v>0.07264767811438756</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>141</v>
@@ -2781,19 +2781,19 @@
         <v>224604</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>189433</v>
+        <v>192960</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>260869</v>
+        <v>262990</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06646667827835435</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05605866462599759</v>
+        <v>0.05710221267301797</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0771984502075488</v>
+        <v>0.07782632367060643</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>268</v>
@@ -2802,19 +2802,19 @@
         <v>429019</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>379658</v>
+        <v>375574</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>476739</v>
+        <v>479229</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06445849756599953</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0570421975928932</v>
+        <v>0.05642859924641581</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07162821044596245</v>
+        <v>0.07200238625562158</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>272955</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>235508</v>
+        <v>235627</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>314092</v>
+        <v>316123</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08330578942801851</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07187687500314076</v>
+        <v>0.07191329335384623</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09586089141475403</v>
+        <v>0.09648065355233365</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>210</v>
@@ -2852,19 +2852,19 @@
         <v>249635</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>218569</v>
+        <v>218057</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>279946</v>
+        <v>281893</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07387405925164651</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06468070241121252</v>
+        <v>0.06452916281507348</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08284392421065352</v>
+        <v>0.08342006954124151</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>372</v>
@@ -2873,19 +2873,19 @@
         <v>522590</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>470941</v>
+        <v>472818</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>573669</v>
+        <v>579754</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07851718978712273</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07075719027808113</v>
+        <v>0.07103908529160916</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08619163502141176</v>
+        <v>0.08710581762441778</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>2799173</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2747729</v>
+        <v>2747732</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2846892</v>
+        <v>2850361</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8543068099446878</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8386061856285186</v>
+        <v>0.8386071748281158</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8688704994406453</v>
+        <v>0.8699295073313446</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2938</v>
@@ -2923,19 +2923,19 @@
         <v>2904958</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2865158</v>
+        <v>2856179</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2949613</v>
+        <v>2949529</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8596592624699991</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.847881236330258</v>
+        <v>0.8452241066940667</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8728740804620028</v>
+        <v>0.872848977565687</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5855</v>
@@ -2944,19 +2944,19 @@
         <v>5704131</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5642363</v>
+        <v>5634010</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5772150</v>
+        <v>5771550</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8570243126468777</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.847743965232807</v>
+        <v>0.8464888864838584</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8672439184705061</v>
+        <v>0.8671537034659964</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>31796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21596</v>
+        <v>20064</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45992</v>
+        <v>45250</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07001173233709614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04755384221723827</v>
+        <v>0.04417916912725187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1012722294332526</v>
+        <v>0.09963773117852356</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -3312,19 +3312,19 @@
         <v>30112</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19880</v>
+        <v>19994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43207</v>
+        <v>41597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06999036833099487</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04620830273746875</v>
+        <v>0.04647173540855844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1004277896352224</v>
+        <v>0.09668597558917387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -3333,19 +3333,19 @@
         <v>61908</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46789</v>
+        <v>47389</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79442</v>
+        <v>80254</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07000133920949766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0529064596141903</v>
+        <v>0.05358473399179377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08982835936295742</v>
+        <v>0.0907460877105862</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>28924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16779</v>
+        <v>16877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46649</v>
+        <v>46602</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06368960769897375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03694610973407404</v>
+        <v>0.03716180756678235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1027185757316199</v>
+        <v>0.1026153029640231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3383,19 +3383,19 @@
         <v>22953</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12633</v>
+        <v>12452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38561</v>
+        <v>36630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05335033671028148</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02936407149836048</v>
+        <v>0.0289416597225516</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08962770772592145</v>
+        <v>0.08514025382864865</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -3404,19 +3404,19 @@
         <v>51877</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34375</v>
+        <v>35212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71962</v>
+        <v>73399</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05865977564635023</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0388694085969922</v>
+        <v>0.03981562333925928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.081370629733006</v>
+        <v>0.08299532947214709</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>393426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>374083</v>
+        <v>372543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>408725</v>
+        <v>408832</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8662986599639301</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.823706944032962</v>
+        <v>0.8203164299088502</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8999859122945999</v>
+        <v>0.9002208481626114</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>382</v>
@@ -3454,19 +3454,19 @@
         <v>377165</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>359392</v>
+        <v>361520</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>391004</v>
+        <v>392214</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8766592949587236</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8353483116678443</v>
+        <v>0.8402953211802477</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.908825277984776</v>
+        <v>0.9116383305456655</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>789</v>
@@ -3475,19 +3475,19 @@
         <v>770591</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>747217</v>
+        <v>744981</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>794444</v>
+        <v>792643</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8713388851441521</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8449090671271883</v>
+        <v>0.842379962362101</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8983103882095191</v>
+        <v>0.8962741423852544</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>61090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45058</v>
+        <v>45754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76971</v>
+        <v>78863</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08891179410413827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06557775158166017</v>
+        <v>0.0665916844889171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1120244761089089</v>
+        <v>0.1147783459008586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -3600,19 +3600,19 @@
         <v>72602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57356</v>
+        <v>57658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89778</v>
+        <v>90560</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1189698025863443</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0939871458698293</v>
+        <v>0.09448198967787381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1471149200007632</v>
+        <v>0.148396400712711</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -3621,19 +3621,19 @@
         <v>133692</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>111329</v>
+        <v>112173</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>157107</v>
+        <v>157531</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1030507458294668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08581296253254768</v>
+        <v>0.08646364672659705</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1210993957569909</v>
+        <v>0.1214263120010621</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>74167</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53735</v>
+        <v>53723</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99103</v>
+        <v>96589</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.107943494056214</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.078206422919687</v>
+        <v>0.07818910358078732</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1442363265314409</v>
+        <v>0.1405771177815934</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -3671,19 +3671,19 @@
         <v>72217</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53306</v>
+        <v>54586</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93398</v>
+        <v>94448</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1183396925406095</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08735072695870832</v>
+        <v>0.08944805275606225</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1530470008506576</v>
+        <v>0.1547675776808679</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>78</v>
@@ -3692,19 +3692,19 @@
         <v>146384</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>119801</v>
+        <v>120293</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>179480</v>
+        <v>178294</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1128337497957058</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09234344778510528</v>
+        <v>0.09272231065462477</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1383442657569113</v>
+        <v>0.137429951281666</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>551830</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>525625</v>
+        <v>524536</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>576711</v>
+        <v>576401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8031447118396476</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7650052135637757</v>
+        <v>0.7634197476911206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8393564605357533</v>
+        <v>0.8389047779018515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>469</v>
@@ -3742,19 +3742,19 @@
         <v>465436</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>440597</v>
+        <v>440699</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>487845</v>
+        <v>490297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7626905048730462</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7219877822995807</v>
+        <v>0.722156296746868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7994120994406809</v>
+        <v>0.8034289502467451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1050</v>
@@ -3763,19 +3763,19 @@
         <v>1017266</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>978957</v>
+        <v>982343</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1049603</v>
+        <v>1050110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7841155043748274</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7545868125332907</v>
+        <v>0.7571963715513647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8090411000431748</v>
+        <v>0.8094321659456146</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>57461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42978</v>
+        <v>42360</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73496</v>
+        <v>74749</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08427041047910767</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0630308545404273</v>
+        <v>0.06212439432335719</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1077864976424842</v>
+        <v>0.1096251987835759</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -3888,19 +3888,19 @@
         <v>69489</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53759</v>
+        <v>52993</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86315</v>
+        <v>85936</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09775445231813176</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07562572232189591</v>
+        <v>0.0745481204916411</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1214257376345984</v>
+        <v>0.1208912564653108</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -3909,19 +3909,19 @@
         <v>126950</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>105428</v>
+        <v>102848</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>153774</v>
+        <v>149361</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09115275538036192</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07569949542487941</v>
+        <v>0.07384751222016635</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1104130827862913</v>
+        <v>0.1072446577043892</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>86617</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66003</v>
+        <v>66332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111809</v>
+        <v>113516</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1270302588293198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09679870959911262</v>
+        <v>0.09728036925663368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1639756532742943</v>
+        <v>0.1664786808457163</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3959,19 +3959,19 @@
         <v>85943</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64602</v>
+        <v>66565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109577</v>
+        <v>111719</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1209018612744641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09087924963559503</v>
+        <v>0.09364097717051859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1541492124230597</v>
+        <v>0.1571628420402879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -3980,19 +3980,19 @@
         <v>172560</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141255</v>
+        <v>143523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209149</v>
+        <v>209863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1239022838372478</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1014245084277954</v>
+        <v>0.1030528715004632</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1501737425586116</v>
+        <v>0.1506862375333345</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>537785</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>511365</v>
+        <v>509260</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>561688</v>
+        <v>562120</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7886993306915725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7499532777456728</v>
+        <v>0.7468655098035969</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8237553190737383</v>
+        <v>0.8243883380376208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>561</v>
@@ -4030,19 +4030,19 @@
         <v>555418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>529174</v>
+        <v>529403</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>581392</v>
+        <v>581321</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7813436864074041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7444244328129657</v>
+        <v>0.7447469801652514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8178832593543497</v>
+        <v>0.8177823081674825</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1123</v>
@@ -4051,19 +4051,19 @@
         <v>1093202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1055417</v>
+        <v>1054894</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1126935</v>
+        <v>1127721</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7849449607823903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.757813973458369</v>
+        <v>0.7574388162188799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8091655270215058</v>
+        <v>0.8097302564559461</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>38270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27241</v>
+        <v>25922</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54883</v>
+        <v>53015</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06226579078635885</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04432220283184066</v>
+        <v>0.04217654224717524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08929591418880685</v>
+        <v>0.08625696789351243</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -4176,19 +4176,19 @@
         <v>30585</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20323</v>
+        <v>19550</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43222</v>
+        <v>43815</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04963438575122338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03298160378656425</v>
+        <v>0.03172679486993307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07014230911910754</v>
+        <v>0.07110508370559881</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -4197,19 +4197,19 @@
         <v>68854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52676</v>
+        <v>51631</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90279</v>
+        <v>88853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05594196836997347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04279777607841478</v>
+        <v>0.0419489689867629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07334901486226586</v>
+        <v>0.07219055180568397</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>65240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46842</v>
+        <v>46284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90142</v>
+        <v>90573</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1061473907522484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07621272660943736</v>
+        <v>0.07530491487191109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.14666442030707</v>
+        <v>0.1473655032715307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -4247,19 +4247,19 @@
         <v>79643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58951</v>
+        <v>59600</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103107</v>
+        <v>106341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1292488348249087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09566898323555853</v>
+        <v>0.09672215561112424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1673273822588897</v>
+        <v>0.172575949240809</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>71</v>
@@ -4268,19 +4268,19 @@
         <v>144883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116501</v>
+        <v>117499</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>180549</v>
+        <v>179800</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1177129631862888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09465349052046325</v>
+        <v>0.09546435196225363</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1466903822011166</v>
+        <v>0.1460818913682385</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>511107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>485066</v>
+        <v>485929</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>533410</v>
+        <v>533143</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8315868184613927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7892172636655322</v>
+        <v>0.7906206996737271</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8678735195984816</v>
+        <v>0.86743923384787</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>474</v>
@@ -4318,19 +4318,19 @@
         <v>505971</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>481791</v>
+        <v>479476</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>529484</v>
+        <v>527995</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.821116779423868</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7818756742232497</v>
+        <v>0.7781186673455609</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8592743676557107</v>
+        <v>0.8568572602358631</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>964</v>
@@ -4339,19 +4339,19 @@
         <v>1017079</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>981199</v>
+        <v>983749</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1051695</v>
+        <v>1047025</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8263450684437377</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7971942344090643</v>
+        <v>0.7992660551944356</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8544698995070223</v>
+        <v>0.8506755646074685</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>12386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5548</v>
+        <v>5534</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23263</v>
+        <v>22157</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02884242716560216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0129184883085454</v>
+        <v>0.01288748802305038</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05417126859850119</v>
+        <v>0.05159688880431856</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -4464,19 +4464,19 @@
         <v>12439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6238</v>
+        <v>6212</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21825</v>
+        <v>22291</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02777884254986223</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01393095284898082</v>
+        <v>0.01387196128835329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04873735009120224</v>
+        <v>0.04977787827439057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -4485,19 +4485,19 @@
         <v>24825</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14615</v>
+        <v>15098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37396</v>
+        <v>37986</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02829949811961094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01666044912602638</v>
+        <v>0.01721047039235005</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04263003198474111</v>
+        <v>0.04330274878457076</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>33071</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20049</v>
+        <v>20020</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50627</v>
+        <v>51443</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07701112244920616</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04668738448380951</v>
+        <v>0.04662002607238115</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1178936120121643</v>
+        <v>0.1197929679328273</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -4535,19 +4535,19 @@
         <v>47829</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32991</v>
+        <v>31726</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67538</v>
+        <v>66344</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1068096270261196</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07367275115767746</v>
+        <v>0.07084784559233709</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.150821047225188</v>
+        <v>0.1481561078779244</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>40</v>
@@ -4556,19 +4556,19 @@
         <v>80900</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>57367</v>
+        <v>58011</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>106748</v>
+        <v>104820</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0922223932992018</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06539566509256604</v>
+        <v>0.06613001110422316</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1216874264685244</v>
+        <v>0.1194900418962885</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>383972</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>365186</v>
+        <v>365594</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>399783</v>
+        <v>399478</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8941464503851917</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8503981512597008</v>
+        <v>0.8513499786266321</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.930963489322528</v>
+        <v>0.9302538436393112</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>371</v>
@@ -4606,19 +4606,19 @@
         <v>387531</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>367716</v>
+        <v>367118</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>404576</v>
+        <v>404094</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8654115304240182</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8211611376043659</v>
+        <v>0.819826657070164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9034741670772325</v>
+        <v>0.9023989571725235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>740</v>
@@ -4627,19 +4627,19 @@
         <v>771504</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>743622</v>
+        <v>744347</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>796160</v>
+        <v>796287</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8794781085811872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8476941137847224</v>
+        <v>0.8485211344206031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9075856826751937</v>
+        <v>0.9077295804712509</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>4129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>579</v>
+        <v>771</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10820</v>
+        <v>11268</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01332750314290346</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001870590811685668</v>
+        <v>0.002487898607519366</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03492888896138342</v>
+        <v>0.03637372424743557</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -4752,19 +4752,19 @@
         <v>7022</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14376</v>
+        <v>13566</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01983584576086627</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00668713560815407</v>
+        <v>0.006692842383462907</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04061082196982777</v>
+        <v>0.03832131707423508</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -4773,19 +4773,19 @@
         <v>11150</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5095</v>
+        <v>5284</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20254</v>
+        <v>21209</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0167984116951525</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007676335173363307</v>
+        <v>0.007960418203006935</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03051263316513338</v>
+        <v>0.03195126779816141</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>44797</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28995</v>
+        <v>29381</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63337</v>
+        <v>61757</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1446053783699996</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09359585184619977</v>
+        <v>0.09484286732227787</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2044530151353424</v>
+        <v>0.1993526294722541</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -4823,19 +4823,19 @@
         <v>31908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20001</v>
+        <v>20055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47372</v>
+        <v>47157</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09013786531281397</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05649930682284091</v>
+        <v>0.05665232399764526</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1338193221738474</v>
+        <v>0.1332133186589956</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -4844,19 +4844,19 @@
         <v>76705</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57441</v>
+        <v>55217</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101306</v>
+        <v>97567</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1155577747038765</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08653669377764844</v>
+        <v>0.08318545999534303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1526198707802016</v>
+        <v>0.1469859045247331</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>260861</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>241929</v>
+        <v>243030</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>276594</v>
+        <v>277627</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8420671184870969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.780953906177478</v>
+        <v>0.7845091398874372</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8928537629948481</v>
+        <v>0.8961904711775345</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>320</v>
@@ -4894,19 +4894,19 @@
         <v>315066</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>298465</v>
+        <v>299222</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>328299</v>
+        <v>327213</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8900262889263197</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.843131510155531</v>
+        <v>0.8452683835950381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9274090907502394</v>
+        <v>0.9243407694368059</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>578</v>
@@ -4915,19 +4915,19 @@
         <v>575926</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>551811</v>
+        <v>554324</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>596572</v>
+        <v>597740</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.867643813600971</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8313140288791643</v>
+        <v>0.83509905059068</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8987461406913926</v>
+        <v>0.9005071876872701</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>4097</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10931</v>
+        <v>10274</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01639609341828126</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005088265554924669</v>
+        <v>0.005184825204307789</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0437516033110659</v>
+        <v>0.04112058450925955</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -5040,19 +5040,19 @@
         <v>9126</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3944</v>
+        <v>3831</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18301</v>
+        <v>16963</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02346019789053296</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01014053217936094</v>
+        <v>0.009849223006989139</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04704914197721803</v>
+        <v>0.04360903034332612</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -5061,19 +5061,19 @@
         <v>13222</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6734</v>
+        <v>6507</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24695</v>
+        <v>23105</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0206973768855045</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01054115176920122</v>
+        <v>0.01018629651584227</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03865695792149366</v>
+        <v>0.03616843008534933</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>26407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14661</v>
+        <v>15473</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42754</v>
+        <v>42145</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1056892267330579</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05867847333458784</v>
+        <v>0.06193061602127116</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1711190158144928</v>
+        <v>0.1686821235193558</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -5111,19 +5111,19 @@
         <v>11838</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5837</v>
+        <v>4024</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23436</v>
+        <v>26938</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03043309744056432</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0150046879908396</v>
+        <v>0.01034497774935999</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0602512997574854</v>
+        <v>0.06925403803895676</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -5132,19 +5132,19 @@
         <v>38244</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21338</v>
+        <v>23130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>55605</v>
+        <v>58993</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0598662995659236</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03340157905064664</v>
+        <v>0.03620632507500691</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08704271637160345</v>
+        <v>0.09234512807533225</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>219348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>201303</v>
+        <v>204453</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>231546</v>
+        <v>231552</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8779146798486609</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8056933256163232</v>
+        <v>0.8183005604298015</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.926736569175419</v>
+        <v>0.9267598696170628</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>337</v>
@@ -5182,19 +5182,19 @@
         <v>368016</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>354866</v>
+        <v>353392</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>377077</v>
+        <v>377776</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9461067046689027</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9123003958214597</v>
+        <v>0.9085120190737597</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9694025087741674</v>
+        <v>0.9711982241244641</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>544</v>
@@ -5203,19 +5203,19 @@
         <v>587364</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>568689</v>
+        <v>565101</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>605542</v>
+        <v>603932</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9194363235485719</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8902036465943628</v>
+        <v>0.884587745546379</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9478915216169018</v>
+        <v>0.9453720631927689</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>209227</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>179264</v>
+        <v>175819</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>239751</v>
+        <v>237806</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06105651713010651</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0523126699788356</v>
+        <v>0.05130725496631507</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06996387590954584</v>
+        <v>0.06939637962170171</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>194</v>
@@ -5328,19 +5328,19 @@
         <v>231374</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>200104</v>
+        <v>202176</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>265366</v>
+        <v>265721</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06502358101283792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05623561932893989</v>
+        <v>0.05681791633843752</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07457646235347724</v>
+        <v>0.07467615707274065</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>356</v>
@@ -5349,19 +5349,19 @@
         <v>440601</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>398749</v>
+        <v>401241</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>490370</v>
+        <v>484201</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.063077399268209</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05708580805890392</v>
+        <v>0.05744253770981805</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07020242861438433</v>
+        <v>0.06931926748321078</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>359222</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>311031</v>
+        <v>309471</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>409011</v>
+        <v>410538</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1048279579455588</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09076480677393044</v>
+        <v>0.09030959359306008</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.119357381426452</v>
+        <v>0.119802968425897</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>190</v>
@@ -5399,19 +5399,19 @@
         <v>352332</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>306439</v>
+        <v>310962</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>400310</v>
+        <v>401018</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.09901670287900963</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.08611938565324276</v>
+        <v>0.08739048787742806</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1125001735347601</v>
+        <v>0.1126989850495907</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>363</v>
@@ -5420,19 +5420,19 @@
         <v>711554</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>646797</v>
+        <v>651522</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>782266</v>
+        <v>782587</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1018676170206073</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09259681825759852</v>
+        <v>0.09327328594981663</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1119908236166506</v>
+        <v>0.1120368083604466</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>2858330</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2802408</v>
+        <v>2800736</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2912438</v>
+        <v>2914772</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8341155249243346</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8177964244228372</v>
+        <v>0.817308673097968</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8499053780966126</v>
+        <v>0.8505866051668036</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2914</v>
@@ -5470,19 +5470,19 @@
         <v>2974603</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2916175</v>
+        <v>2919612</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3024482</v>
+        <v>3027857</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8359597161081525</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8195395052045925</v>
+        <v>0.8205054073181143</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8499774224600947</v>
+        <v>0.8509258327326399</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5788</v>
@@ -5491,19 +5491,19 @@
         <v>5832933</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5757201</v>
+        <v>5749977</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5907307</v>
+        <v>5901261</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8350549837111837</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.824213026752188</v>
+        <v>0.8231788752710923</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.845702567590806</v>
+        <v>0.8448369631165265</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>41664</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29471</v>
+        <v>29511</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57225</v>
+        <v>57244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09932708455533033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07025825256319285</v>
+        <v>0.07035431808750832</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1364249343857942</v>
+        <v>0.1364695576733543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -5859,19 +5859,19 @@
         <v>24404</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15596</v>
+        <v>15948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34911</v>
+        <v>36093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06166388076430875</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03940859465396715</v>
+        <v>0.04029765966398399</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08821308518632025</v>
+        <v>0.09120138873860659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -5880,19 +5880,19 @@
         <v>66068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49892</v>
+        <v>49755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84461</v>
+        <v>83817</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08104313927817877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06120073383117725</v>
+        <v>0.06103329843411462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1036058961345765</v>
+        <v>0.1028152501929157</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>26098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15726</v>
+        <v>15399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42508</v>
+        <v>40280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0622170486203363</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03748979459953541</v>
+        <v>0.03671201588482929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1013383709046479</v>
+        <v>0.09602708713008097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -5930,19 +5930,19 @@
         <v>21853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12719</v>
+        <v>12574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35638</v>
+        <v>35624</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05521762534902773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0321378930918152</v>
+        <v>0.03177336780757972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0900511834709458</v>
+        <v>0.09001651131139511</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -5951,19 +5951,19 @@
         <v>47950</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32036</v>
+        <v>32989</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66027</v>
+        <v>65864</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05881911484990292</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03929719890206271</v>
+        <v>0.04046701571327996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08099294131426865</v>
+        <v>0.08079353785789657</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>351701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>333351</v>
+        <v>332803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>368774</v>
+        <v>368619</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8384558668243334</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7947095097882746</v>
+        <v>0.7934027031222446</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8791579629511065</v>
+        <v>0.8787875363702394</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>367</v>
@@ -6001,19 +6001,19 @@
         <v>349499</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>332476</v>
+        <v>333693</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>362807</v>
+        <v>361592</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8831184938866635</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.840105205135991</v>
+        <v>0.8431819029810037</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9167471314965812</v>
+        <v>0.9136754568479118</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>714</v>
@@ -6022,19 +6022,19 @@
         <v>701200</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>677603</v>
+        <v>678623</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>723021</v>
+        <v>722494</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8601377458719183</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8311921660635274</v>
+        <v>0.8324439519322862</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8869053712113483</v>
+        <v>0.8862586380517118</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>57122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41969</v>
+        <v>40476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75196</v>
+        <v>72785</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09673552975611839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07107408142783801</v>
+        <v>0.06854503318496792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1273445146747582</v>
+        <v>0.123261594699789</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -6147,19 +6147,19 @@
         <v>52880</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41430</v>
+        <v>40003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70510</v>
+        <v>67953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09383422230500091</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07351667764308188</v>
+        <v>0.07098533958665205</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1251195408481288</v>
+        <v>0.1205812463390296</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>95</v>
@@ -6168,19 +6168,19 @@
         <v>110002</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89342</v>
+        <v>89508</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130937</v>
+        <v>130095</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09531875601737141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07741657534282927</v>
+        <v>0.07756037512686591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1134597415677561</v>
+        <v>0.1127304831387559</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>46340</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30923</v>
+        <v>32150</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62678</v>
+        <v>64939</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07847599087695542</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05236734092384055</v>
+        <v>0.05444597371303045</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1061444385547293</v>
+        <v>0.1099730923647794</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -6218,19 +6218,19 @@
         <v>41216</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27870</v>
+        <v>27432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>57362</v>
+        <v>57181</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07313684596234178</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0494556412175063</v>
+        <v>0.04867709910781562</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1017879219158429</v>
+        <v>0.1014668717783101</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -6239,19 +6239,19 @@
         <v>87556</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>67828</v>
+        <v>67978</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110414</v>
+        <v>112476</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07586876622743559</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05877480587574018</v>
+        <v>0.05890409287450715</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09567639042783593</v>
+        <v>0.09746258343715677</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>487034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>466835</v>
+        <v>466096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>511031</v>
+        <v>507122</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8247884793669262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.790580558827776</v>
+        <v>0.7893297186921265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.865426033624072</v>
+        <v>0.8588067361008868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>501</v>
@@ -6289,19 +6289,19 @@
         <v>469448</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>448837</v>
+        <v>448674</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>487966</v>
+        <v>489428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8330289317326574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7964547592217932</v>
+        <v>0.7961651128750628</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8658887836159627</v>
+        <v>0.8684829979234437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>996</v>
@@ -6310,19 +6310,19 @@
         <v>956483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>927479</v>
+        <v>926263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>985128</v>
+        <v>984962</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.828812477755193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8036796912547992</v>
+        <v>0.8026261320418735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8536339984653316</v>
+        <v>0.8534902462973412</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>53622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39181</v>
+        <v>38505</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69786</v>
+        <v>69938</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08014043463454765</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05855872820927809</v>
+        <v>0.05754820185804049</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1042994264631733</v>
+        <v>0.104525460958061</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>68</v>
@@ -6435,19 +6435,19 @@
         <v>70973</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54590</v>
+        <v>56392</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>85937</v>
+        <v>88223</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1073090254844128</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08253909915647037</v>
+        <v>0.08526356838242599</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1299348271783066</v>
+        <v>0.1333912119781658</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>110</v>
@@ -6456,19 +6456,19 @@
         <v>124594</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>105677</v>
+        <v>104823</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150564</v>
+        <v>147062</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0936460063898949</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07942730563274518</v>
+        <v>0.07878554990612573</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1131652814877851</v>
+        <v>0.1105328703387298</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>78646</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59573</v>
+        <v>59818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100106</v>
+        <v>102358</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1175412020956014</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08903486974423951</v>
+        <v>0.08940176718131453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1496134640285618</v>
+        <v>0.1529786744352084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -6506,19 +6506,19 @@
         <v>84515</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63734</v>
+        <v>65799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104749</v>
+        <v>107498</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1277846352678713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.096364511072769</v>
+        <v>0.09948692194820073</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1583786317185261</v>
+        <v>0.1625348860971208</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -6527,19 +6527,19 @@
         <v>163161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135987</v>
+        <v>136329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195309</v>
+        <v>195677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1226332373245791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1022085392312546</v>
+        <v>0.1024656503047946</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1467956134352192</v>
+        <v>0.1470721795762809</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>536829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>511373</v>
+        <v>511492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>560943</v>
+        <v>559989</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.802318363269851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7642738915724349</v>
+        <v>0.7644507322146624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8383580932515805</v>
+        <v>0.8369327396773059</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>542</v>
@@ -6577,19 +6577,19 @@
         <v>505898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>482954</v>
+        <v>481048</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>529939</v>
+        <v>526723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7649063392477159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7302156663869425</v>
+        <v>0.7273337966257534</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8012555916103888</v>
+        <v>0.7963920075997862</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1091</v>
@@ -6598,19 +6598,19 @@
         <v>1042727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1009746</v>
+        <v>1004567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1073923</v>
+        <v>1074322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.783720756285526</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7589320594699082</v>
+        <v>0.7550395975691537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8071679241592665</v>
+        <v>0.8074677703325882</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>41378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28379</v>
+        <v>27929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56889</v>
+        <v>56566</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06404757760564068</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04392683959866378</v>
+        <v>0.043230648727004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08805768674623969</v>
+        <v>0.08755675884015968</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -6723,19 +6723,19 @@
         <v>48553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35866</v>
+        <v>35792</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64498</v>
+        <v>63750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07480239940823248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05525696494340473</v>
+        <v>0.05514215878070011</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09936825024533311</v>
+        <v>0.0982165133719055</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -6744,19 +6744,19 @@
         <v>89930</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72064</v>
+        <v>72229</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110578</v>
+        <v>112911</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06943756505274612</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05564248207927752</v>
+        <v>0.05577029116198435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08538004620344702</v>
+        <v>0.08718180288003109</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>74117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54869</v>
+        <v>55987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95363</v>
+        <v>96187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.114724146069276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08492957598200575</v>
+        <v>0.08666063768667975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1476090578533173</v>
+        <v>0.1488850802713735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -6794,19 +6794,19 @@
         <v>57707</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41777</v>
+        <v>42852</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80427</v>
+        <v>77510</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08890605838079452</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06436389933238285</v>
+        <v>0.06602066544901981</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1239094259581826</v>
+        <v>0.1194155340632353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -6815,19 +6815,19 @@
         <v>131824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106816</v>
+        <v>107955</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>161071</v>
+        <v>164970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1017849108961142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08247551720444918</v>
+        <v>0.08335487556065296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1243673171865561</v>
+        <v>0.1273775423715104</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>530553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>506528</v>
+        <v>504576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>553240</v>
+        <v>552115</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8212282763250833</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7840415830829104</v>
+        <v>0.7810192759545221</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8563456941939012</v>
+        <v>0.854604128388033</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>526</v>
@@ -6865,19 +6865,19 @@
         <v>542818</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>516503</v>
+        <v>518544</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>562856</v>
+        <v>560501</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.836291542210973</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7957500056227728</v>
+        <v>0.7988949318708787</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8671634658714473</v>
+        <v>0.863535713623057</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1035</v>
@@ -6886,19 +6886,19 @@
         <v>1073370</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1040157</v>
+        <v>1038933</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1102796</v>
+        <v>1103143</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8287775240511396</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8031323435163517</v>
+        <v>0.802187346091589</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8514980200295497</v>
+        <v>0.8517653322504135</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>10088</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4216</v>
+        <v>4320</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20092</v>
+        <v>19021</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02110815620653743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008820615593338538</v>
+        <v>0.00903817258263377</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04203986999644777</v>
+        <v>0.03980042184816338</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -7011,19 +7011,19 @@
         <v>23546</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14658</v>
+        <v>14730</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35781</v>
+        <v>35795</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04738983907464905</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02950190077245154</v>
+        <v>0.029647378038495</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07201563204209392</v>
+        <v>0.07204338753100668</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -7032,19 +7032,19 @@
         <v>33634</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22949</v>
+        <v>21261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48854</v>
+        <v>47112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0345042066367235</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02354293498877625</v>
+        <v>0.02181144806267536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05011839012768231</v>
+        <v>0.04833169525657552</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>36415</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22438</v>
+        <v>23789</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52936</v>
+        <v>56680</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07619569064263995</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04694982091367093</v>
+        <v>0.04977596373602517</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1107639235417928</v>
+        <v>0.1185968056657616</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -7082,19 +7082,19 @@
         <v>39875</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25699</v>
+        <v>27353</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>59134</v>
+        <v>57826</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08025604209198227</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05172495180770484</v>
+        <v>0.05505371234601154</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1190181795789198</v>
+        <v>0.1163861022037942</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>42</v>
@@ -7103,19 +7103,19 @@
         <v>76290</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58538</v>
+        <v>56632</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>103601</v>
+        <v>99847</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07826529452046717</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06005325981429706</v>
+        <v>0.05809782326050384</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1062825663625209</v>
+        <v>0.1024316011636571</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>431415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>413575</v>
+        <v>414067</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>446347</v>
+        <v>446716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9026961531508226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8653687421523931</v>
+        <v>0.8663970563511914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9339406916836829</v>
+        <v>0.9347116714512743</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>392</v>
@@ -7153,19 +7153,19 @@
         <v>433428</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>413717</v>
+        <v>414241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>449364</v>
+        <v>448645</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8723541188333687</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8326823831595731</v>
+        <v>0.8337365326446381</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9044272145299189</v>
+        <v>0.9029807671416383</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>789</v>
@@ -7174,19 +7174,19 @@
         <v>864843</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>835964</v>
+        <v>840733</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>886057</v>
+        <v>889374</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8872304988428094</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8576038519328585</v>
+        <v>0.8624963946762947</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9089934822352448</v>
+        <v>0.9123966955510973</v>
       </c>
     </row>
     <row r="23">
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8077</v>
+        <v>9121</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007890854236258734</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0241599324906915</v>
+        <v>0.02728037367411142</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -7299,19 +7299,19 @@
         <v>8236</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3539</v>
+        <v>3490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15428</v>
+        <v>15292</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02180292475980594</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009369031285927133</v>
+        <v>0.009237704787596411</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04083972953108768</v>
+        <v>0.04048144503638636</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -7320,19 +7320,19 @@
         <v>10874</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4861</v>
+        <v>4920</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19481</v>
+        <v>20436</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01527115286221652</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006827039988675798</v>
+        <v>0.006908904414215744</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02735750045934255</v>
+        <v>0.02869842715622218</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>37396</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25940</v>
+        <v>24940</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53311</v>
+        <v>53599</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1118542539834476</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07758771791165806</v>
+        <v>0.0745972792850024</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1594555372908346</v>
+        <v>0.1603181224247102</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -7370,19 +7370,19 @@
         <v>34639</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22761</v>
+        <v>22736</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51100</v>
+        <v>51753</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09169434622419874</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06025157826991618</v>
+        <v>0.06018667895540443</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1352703106293447</v>
+        <v>0.1370002487478751</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -7391,19 +7391,19 @@
         <v>72035</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54481</v>
+        <v>54645</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92500</v>
+        <v>94095</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1011595023084048</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07650844982998002</v>
+        <v>0.07673811351567236</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.129899158628456</v>
+        <v>0.1321381823407521</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>294296</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>279146</v>
+        <v>278443</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>306713</v>
+        <v>306608</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8802548917802936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8349403310376199</v>
+        <v>0.8328376084811145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9173953087750708</v>
+        <v>0.9170830689162373</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>327</v>
@@ -7441,19 +7441,19 @@
         <v>334887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>318670</v>
+        <v>318004</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>348612</v>
+        <v>348968</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8865027290159954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8435730483947258</v>
+        <v>0.8418113187477424</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9228353542809257</v>
+        <v>0.9237769637484839</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>627</v>
@@ -7462,19 +7462,19 @@
         <v>629183</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>606949</v>
+        <v>606368</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>648050</v>
+        <v>647821</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8835693448293787</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8523456732326556</v>
+        <v>0.851529873630498</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9100653737770092</v>
+        <v>0.9097437747843972</v>
       </c>
     </row>
     <row r="27">
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9406</v>
+        <v>7368</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008262173888385434</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03659974902386962</v>
+        <v>0.02867047936993228</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9392</v>
+        <v>10434</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.007240388486778796</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0234711145839495</v>
+        <v>0.02607500621160331</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -7608,19 +7608,19 @@
         <v>5021</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1080</v>
+        <v>1415</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11672</v>
+        <v>12161</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007639977640726356</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001643735337434066</v>
+        <v>0.002153236344503041</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01776154724956332</v>
+        <v>0.01850461201569645</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>16733</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8526</v>
+        <v>9630</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27735</v>
+        <v>27705</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06511028298817036</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03317496103082394</v>
+        <v>0.03747178408137523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1079205834013483</v>
+        <v>0.1078019298686936</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -7658,19 +7658,19 @@
         <v>46301</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>31682</v>
+        <v>30169</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>66078</v>
+        <v>66240</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1157033278557821</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07917181531727081</v>
+        <v>0.07539145458624946</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1651250826554369</v>
+        <v>0.16552938141784</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -7679,19 +7679,19 @@
         <v>63034</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>45443</v>
+        <v>42319</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>84304</v>
+        <v>86962</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09591792872746034</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06914911479536905</v>
+        <v>0.06439576022770596</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1282838423359903</v>
+        <v>0.1323292495302449</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>238141</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>227005</v>
+        <v>226848</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>246947</v>
+        <v>245890</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9266275431234442</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.883295722330983</v>
+        <v>0.8826841728368434</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9608903656953994</v>
+        <v>0.9567779999107571</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>277</v>
@@ -7729,19 +7729,19 @@
         <v>350971</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>329966</v>
+        <v>330988</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>366449</v>
+        <v>368002</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8770562836574392</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8245678539604886</v>
+        <v>0.8271214939073335</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9157363356747528</v>
+        <v>0.9196176031661759</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>565</v>
@@ -7750,19 +7750,19 @@
         <v>589112</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>566756</v>
+        <v>565530</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>607059</v>
+        <v>608859</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8964420936318133</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8624230299773344</v>
+        <v>0.8605573605016351</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9237522312104478</v>
+        <v>0.9264912795720136</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>208635</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>178565</v>
+        <v>176523</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>242952</v>
+        <v>240151</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06146537622500136</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05260646658767695</v>
+        <v>0.05200500269044089</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07157546518609487</v>
+        <v>0.07075034398245002</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>212</v>
@@ -7875,19 +7875,19 @@
         <v>231488</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>203737</v>
+        <v>203835</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>263514</v>
+        <v>262465</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0653082960503657</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05747910497053656</v>
+        <v>0.05750685240403976</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07434366286041492</v>
+        <v>0.07404760048396845</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>370</v>
@@ -7896,19 +7896,19 @@
         <v>440123</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>397845</v>
+        <v>398053</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>482878</v>
+        <v>487293</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06342842605491429</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05733547160285182</v>
+        <v>0.0573655495116546</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06959010244276442</v>
+        <v>0.07022629261066635</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>315746</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>273226</v>
+        <v>272610</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>359419</v>
+        <v>359120</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09302104998909676</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08049440411220621</v>
+        <v>0.08031273968430665</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1058875571727495</v>
+        <v>0.1057992295919533</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>194</v>
@@ -7946,19 +7946,19 @@
         <v>326105</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>286277</v>
+        <v>285641</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>372109</v>
+        <v>371115</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.09200201250676818</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.08076556837150173</v>
+        <v>0.08058601136875004</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.104980836320967</v>
+        <v>0.104700407849392</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>381</v>
@@ -7967,19 +7967,19 @@
         <v>641851</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>583643</v>
+        <v>585073</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>708964</v>
+        <v>708932</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.09250050273667773</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08411182601497796</v>
+        <v>0.08431797938253496</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1021725725148624</v>
+        <v>0.1021679646588065</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>2869969</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2818431</v>
+        <v>2818182</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2920155</v>
+        <v>2922507</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8455135737859019</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8303301418614731</v>
+        <v>0.830256604880554</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.860298769797828</v>
+        <v>0.8609915654461501</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2932</v>
@@ -8017,19 +8017,19 @@
         <v>2986949</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2935117</v>
+        <v>2939249</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3034111</v>
+        <v>3035673</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8426896914428661</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8280667082833578</v>
+        <v>0.8292324728291188</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8559952701224488</v>
+        <v>0.8564359695897964</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5817</v>
@@ -8038,19 +8038,19 @@
         <v>5856918</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5778652</v>
+        <v>5784037</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5924705</v>
+        <v>5932574</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.844071071208408</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8327918013745585</v>
+        <v>0.833567770491207</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8538402014453702</v>
+        <v>0.8549741825322159</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>45774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28180</v>
+        <v>27690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68504</v>
+        <v>69598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1122487557847583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06910326954731236</v>
+        <v>0.06790227303791885</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1679868021812108</v>
+        <v>0.1706706784502425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -8406,19 +8406,19 @@
         <v>36531</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22432</v>
+        <v>22607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55456</v>
+        <v>53758</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1007715672302713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06187874794204248</v>
+        <v>0.06236271575996232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1529782510962527</v>
+        <v>0.1482922668106076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -8427,19 +8427,19 @@
         <v>82305</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59140</v>
+        <v>59091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110288</v>
+        <v>112580</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1068474951325151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07677536926101336</v>
+        <v>0.07671163769477685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1431743203571308</v>
+        <v>0.1461497919919635</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>12658</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3489</v>
+        <v>3502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30643</v>
+        <v>30341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03104126126238518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008556212125764916</v>
+        <v>0.00858714537647153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07514383353691255</v>
+        <v>0.07440264409291399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -8477,19 +8477,19 @@
         <v>9475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3127</v>
+        <v>3283</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21269</v>
+        <v>21355</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02613572148846392</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008626994965765978</v>
+        <v>0.009056684934547445</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05867041512860746</v>
+        <v>0.05890747796260239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -8498,19 +8498,19 @@
         <v>22133</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10527</v>
+        <v>11098</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41326</v>
+        <v>43629</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02873267333311081</v>
+        <v>0.0287326733331108</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01366660614607713</v>
+        <v>0.01440776258031763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05364894415291222</v>
+        <v>0.05663820023499893</v>
       </c>
     </row>
     <row r="6">
@@ -8527,19 +8527,19 @@
         <v>349360</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>323575</v>
+        <v>324100</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>369111</v>
+        <v>370506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8567099829528567</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7934780528378372</v>
+        <v>0.7947649044766367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.905143717036534</v>
+        <v>0.9085635255707526</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>184</v>
@@ -8548,19 +8548,19 @@
         <v>316507</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>294645</v>
+        <v>295056</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>333067</v>
+        <v>331479</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8730927112812648</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8127861834956427</v>
+        <v>0.8139198674268266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9187738320497857</v>
+        <v>0.914394372582287</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>333</v>
@@ -8569,19 +8569,19 @@
         <v>665867</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>631763</v>
+        <v>632319</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>690956</v>
+        <v>693631</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8644198315343742</v>
+        <v>0.8644198315343741</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.820146412380497</v>
+        <v>0.8208680698401265</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8969896345982351</v>
+        <v>0.9004627964426116</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>49872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34664</v>
+        <v>34648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69027</v>
+        <v>68548</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1045774647322112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07268697071877914</v>
+        <v>0.07265345597298985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.144744636230912</v>
+        <v>0.1437398331277535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -8694,19 +8694,19 @@
         <v>66542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52168</v>
+        <v>51650</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83579</v>
+        <v>83842</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.133268944005318</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1044810056524115</v>
+        <v>0.1034443811408242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1673907059777537</v>
+        <v>0.1679179329988463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>94</v>
@@ -8715,19 +8715,19 @@
         <v>116414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>94706</v>
+        <v>95212</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140036</v>
+        <v>140974</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1192526146943833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09701510780338207</v>
+        <v>0.0975336131221709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.143451184035064</v>
+        <v>0.1444119665152932</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>22564</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12957</v>
+        <v>12042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39053</v>
+        <v>41039</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04731527170155609</v>
+        <v>0.04731527170155608</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02716893425850444</v>
+        <v>0.02525206913077913</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08189040434761974</v>
+        <v>0.08605515562987026</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -8765,19 +8765,19 @@
         <v>21464</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13087</v>
+        <v>13204</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32294</v>
+        <v>32172</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04298735831827007</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02621057129732756</v>
+        <v>0.02644437421014748</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06467771723913697</v>
+        <v>0.06443423453490081</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -8786,19 +8786,19 @@
         <v>44028</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31358</v>
+        <v>28504</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>64628</v>
+        <v>61223</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04510162571563629</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03212258827670848</v>
+        <v>0.02919881455985053</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06620417727495859</v>
+        <v>0.06271627732732443</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>404454</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>384037</v>
+        <v>382757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>423887</v>
+        <v>421606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8481072635662327</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.805295652025716</v>
+        <v>0.8026105772049179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8888568676915485</v>
+        <v>0.8840736379411132</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>376</v>
@@ -8836,19 +8836,19 @@
         <v>411300</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>391648</v>
+        <v>391757</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>426284</v>
+        <v>427470</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8237436976764119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7843856605936691</v>
+        <v>0.7846022112345628</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8537539928196844</v>
+        <v>0.8561290342778045</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>633</v>
@@ -8857,19 +8857,19 @@
         <v>815754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>787316</v>
+        <v>787533</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>840684</v>
+        <v>843263</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8356457595899803</v>
+        <v>0.8356457595899804</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8065146910325808</v>
+        <v>0.8067363908982043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8611834021956734</v>
+        <v>0.8638258375237021</v>
       </c>
     </row>
     <row r="11">
@@ -8961,19 +8961,19 @@
         <v>79507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>63550</v>
+        <v>64232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>98119</v>
+        <v>99169</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1280641309843268</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.102362248506114</v>
+        <v>0.1034596936154023</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1580431925981858</v>
+        <v>0.1597350649227974</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>103</v>
@@ -8982,19 +8982,19 @@
         <v>75057</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>61776</v>
+        <v>61652</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>89489</v>
+        <v>89253</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1206434979980804</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0992958620646217</v>
+        <v>0.099096304357503</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1438403446714776</v>
+        <v>0.143461586444374</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>173</v>
@@ -9003,19 +9003,19 @@
         <v>154564</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>133952</v>
+        <v>130822</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177342</v>
+        <v>177483</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1243499267076028</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1077674531806803</v>
+        <v>0.1052486525934309</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.142675038978101</v>
+        <v>0.1427886322456987</v>
       </c>
     </row>
     <row r="13">
@@ -9032,19 +9032,19 @@
         <v>25928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17198</v>
+        <v>16701</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39245</v>
+        <v>38323</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04176249587189364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.027701803381083</v>
+        <v>0.02690057443254541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06321263598104387</v>
+        <v>0.0617277788824598</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -9053,19 +9053,19 @@
         <v>32246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23403</v>
+        <v>24122</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42949</v>
+        <v>42638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05183120542535184</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03761646324067455</v>
+        <v>0.03877297491914011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06903390253009235</v>
+        <v>0.06853478355987959</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -9074,19 +9074,19 @@
         <v>58174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45545</v>
+        <v>45483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73359</v>
+        <v>74557</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04680212580021097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03664186541082807</v>
+        <v>0.03659171382022608</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05901887869485832</v>
+        <v>0.05998296360503619</v>
       </c>
     </row>
     <row r="14">
@@ -9103,19 +9103,19 @@
         <v>515402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>494987</v>
+        <v>494814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>533479</v>
+        <v>533925</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8301733731437796</v>
+        <v>0.8301733731437795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7972891198880684</v>
+        <v>0.797011479191758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.859289613285147</v>
+        <v>0.8600079736597963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>699</v>
@@ -9124,19 +9124,19 @@
         <v>514836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>496915</v>
+        <v>496992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>530555</v>
+        <v>530709</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8275252965765678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7987209779518557</v>
+        <v>0.7988434828671804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8527922327812131</v>
+        <v>0.8530398871742342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1152</v>
@@ -9145,19 +9145,19 @@
         <v>1030238</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1003820</v>
+        <v>1003913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1053869</v>
+        <v>1057857</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8288479474921863</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8075938494288644</v>
+        <v>0.8076687828282881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8478591630517331</v>
+        <v>0.8510680326008829</v>
       </c>
     </row>
     <row r="15">
@@ -9249,19 +9249,19 @@
         <v>54987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40627</v>
+        <v>41667</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71976</v>
+        <v>71460</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07874508998531353</v>
+        <v>0.07874508998531352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05818037455335727</v>
+        <v>0.05967002424931821</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1030741809944193</v>
+        <v>0.1023356875021272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -9270,19 +9270,19 @@
         <v>56361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44949</v>
+        <v>45318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67839</v>
+        <v>68213</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07695932938800473</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.061376430548504</v>
+        <v>0.06188023869845924</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09263102488559748</v>
+        <v>0.09314272539868286</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -9291,19 +9291,19 @@
         <v>111349</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93805</v>
+        <v>93925</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>131223</v>
+        <v>132459</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07783095230077582</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06556811283051477</v>
+        <v>0.06565215565557854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09172250618391992</v>
+        <v>0.09258678167653568</v>
       </c>
     </row>
     <row r="17">
@@ -9320,19 +9320,19 @@
         <v>43996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31517</v>
+        <v>33647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59515</v>
+        <v>59802</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06300513793151689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04513412963445931</v>
+        <v>0.04818468152503057</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08522978393755477</v>
+        <v>0.08564036521042216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -9341,19 +9341,19 @@
         <v>35508</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27076</v>
+        <v>27243</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46245</v>
+        <v>46427</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04848464978038296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0369718123671007</v>
+        <v>0.0371996896476332</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06314583841710064</v>
+        <v>0.06339379354337617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -9362,19 +9362,19 @@
         <v>79504</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65496</v>
+        <v>63641</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>97174</v>
+        <v>97110</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05557204447159913</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04578036068156947</v>
+        <v>0.04448387485844274</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06792267929412935</v>
+        <v>0.0678782010516351</v>
       </c>
     </row>
     <row r="18">
@@ -9391,19 +9391,19 @@
         <v>599311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>578786</v>
+        <v>578802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>618330</v>
+        <v>616369</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8582497720831695</v>
+        <v>0.8582497720831697</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8288576637981444</v>
+        <v>0.8288808032747432</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8854871518908932</v>
+        <v>0.8826781034610194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>990</v>
@@ -9412,19 +9412,19 @@
         <v>640485</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>624424</v>
+        <v>624895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>653261</v>
+        <v>653810</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8745560208316124</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8526259324238972</v>
+        <v>0.8532690081105472</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8920023010351896</v>
+        <v>0.8927506852697613</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1562</v>
@@ -9433,19 +9433,19 @@
         <v>1239796</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1216292</v>
+        <v>1214546</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1262704</v>
+        <v>1261830</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.866597003227625</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8501679257343067</v>
+        <v>0.8489476049004427</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8826090427284737</v>
+        <v>0.8819985408258191</v>
       </c>
     </row>
     <row r="19">
@@ -9537,19 +9537,19 @@
         <v>43410</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31339</v>
+        <v>32391</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58711</v>
+        <v>56459</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07124105226808114</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05142987822669501</v>
+        <v>0.05315664829674759</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09635135656473309</v>
+        <v>0.09265536226819066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -9558,19 +9558,19 @@
         <v>36287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27323</v>
+        <v>28236</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45410</v>
+        <v>47573</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.05971198020137828</v>
+        <v>0.0597119802013783</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04496103184385095</v>
+        <v>0.04646393436570014</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07472541042496772</v>
+        <v>0.0782839696890843</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>103</v>
@@ -9579,19 +9579,19 @@
         <v>79697</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65678</v>
+        <v>65709</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>96985</v>
+        <v>96580</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06548433352841695</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05396550133320167</v>
+        <v>0.05399109444295613</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0796890728301527</v>
+        <v>0.07935668909196592</v>
       </c>
     </row>
     <row r="21">
@@ -9608,19 +9608,19 @@
         <v>32864</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22527</v>
+        <v>23082</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43348</v>
+        <v>45575</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05393345970923109</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0369686123524199</v>
+        <v>0.03787947066553044</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07113796409954005</v>
+        <v>0.07479281728991949</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -9629,19 +9629,19 @@
         <v>26962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19715</v>
+        <v>19498</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36532</v>
+        <v>36257</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.04436770390259909</v>
+        <v>0.04436770390259911</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.032441467845397</v>
+        <v>0.03208566125102668</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06011581144542579</v>
+        <v>0.05966233340045366</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -9650,19 +9650,19 @@
         <v>59826</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48259</v>
+        <v>46902</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72971</v>
+        <v>75038</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04915706787192702</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03965243489895092</v>
+        <v>0.03853730681787255</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05995794610897354</v>
+        <v>0.06165566359905446</v>
       </c>
     </row>
     <row r="22">
@@ -9679,19 +9679,19 @@
         <v>533071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>516060</v>
+        <v>514881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>546774</v>
+        <v>546805</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8748254880226877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8469084197486498</v>
+        <v>0.8449728054933896</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8973125535915455</v>
+        <v>0.8973639645166769</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>897</v>
@@ -9700,19 +9700,19 @@
         <v>544447</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>532349</v>
+        <v>530427</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>556602</v>
+        <v>554966</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8959203158960227</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8760114390733007</v>
+        <v>0.8728485061342373</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9159213763605256</v>
+        <v>0.9132290804871536</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1481</v>
@@ -9721,19 +9721,19 @@
         <v>1077519</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1056347</v>
+        <v>1055689</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1095022</v>
+        <v>1094212</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8853585985996559</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8679622931693528</v>
+        <v>0.8674219788327273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8997401770499197</v>
+        <v>0.8990745729327084</v>
       </c>
     </row>
     <row r="23">
@@ -9825,19 +9825,19 @@
         <v>16461</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10484</v>
+        <v>10513</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25209</v>
+        <v>24732</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04043663542492784</v>
+        <v>0.04043663542492783</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02575351328286951</v>
+        <v>0.02582642016478073</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06192631918085287</v>
+        <v>0.06075465049511674</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -9846,19 +9846,19 @@
         <v>14975</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9994</v>
+        <v>10099</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21671</v>
+        <v>21558</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03424868859222603</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02285679232378622</v>
+        <v>0.02309637506360841</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04956151737587939</v>
+        <v>0.04930307100147489</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -9867,19 +9867,19 @@
         <v>31436</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>23679</v>
+        <v>23316</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40914</v>
+        <v>41030</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0372320812205558</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02804482234572655</v>
+        <v>0.02761410544140847</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0484569781474246</v>
+        <v>0.04859377442071099</v>
       </c>
     </row>
     <row r="25">
@@ -9896,19 +9896,19 @@
         <v>26067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18559</v>
+        <v>18455</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35718</v>
+        <v>36317</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06403491176349266</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04558938700730895</v>
+        <v>0.04533554977301106</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08774230498435986</v>
+        <v>0.08921239981060392</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -9917,19 +9917,19 @@
         <v>27663</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21014</v>
+        <v>20956</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35688</v>
+        <v>35976</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06326576946156783</v>
+        <v>0.06326576946156784</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04805821798564536</v>
+        <v>0.0479267462227824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08161708540126836</v>
+        <v>0.08227714324282416</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -9938,19 +9938,19 @@
         <v>53731</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43454</v>
+        <v>43507</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65121</v>
+        <v>66230</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0636365957688613</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05146478913549789</v>
+        <v>0.05152787216642949</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07712706806379034</v>
+        <v>0.07844013430457912</v>
       </c>
     </row>
     <row r="26">
@@ -9967,19 +9967,19 @@
         <v>364552</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>352430</v>
+        <v>352404</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>373839</v>
+        <v>374060</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8955284528115796</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8657509946231092</v>
+        <v>0.8656879331785068</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9183436860699473</v>
+        <v>0.9188848496207268</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>746</v>
@@ -9988,19 +9988,19 @@
         <v>394618</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>384940</v>
+        <v>383521</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>402786</v>
+        <v>402912</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9024855419462062</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8803528305695899</v>
+        <v>0.8771067748806201</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9211648494827001</v>
+        <v>0.9214528345381222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1262</v>
@@ -10009,19 +10009,19 @@
         <v>759170</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>745740</v>
+        <v>744114</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>772311</v>
+        <v>772785</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8991313230105827</v>
+        <v>0.8991313230105829</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8832252380436169</v>
+        <v>0.8812998384880765</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9146955291400225</v>
+        <v>0.915256846724416</v>
       </c>
     </row>
     <row r="27">
@@ -10113,19 +10113,19 @@
         <v>8133</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3985</v>
+        <v>4473</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13678</v>
+        <v>14083</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02621744375068183</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01284671442103556</v>
+        <v>0.01441857619275305</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04409504054425347</v>
+        <v>0.04540007213470907</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -10134,19 +10134,19 @@
         <v>9158</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5390</v>
+        <v>5392</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14730</v>
+        <v>14464</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01975187280336997</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01162501432679806</v>
+        <v>0.01162987426703906</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0317677104330437</v>
+        <v>0.0311947951526823</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -10155,19 +10155,19 @@
         <v>17291</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11697</v>
+        <v>11871</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24722</v>
+        <v>25630</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02234354059487325</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01511434492662197</v>
+        <v>0.01534047061051435</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0319455647310616</v>
+        <v>0.03311936885794441</v>
       </c>
     </row>
     <row r="29">
@@ -10184,19 +10184,19 @@
         <v>16543</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10550</v>
+        <v>10658</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25167</v>
+        <v>24463</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05333006974133664</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03401098432969398</v>
+        <v>0.03435916823023262</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08113260451931499</v>
+        <v>0.07886234854581133</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>39</v>
@@ -10205,19 +10205,19 @@
         <v>22445</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15805</v>
+        <v>16682</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30220</v>
+        <v>30808</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04840738694459743</v>
+        <v>0.04840738694459742</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03408608973914501</v>
+        <v>0.03597773701120342</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06517653315384554</v>
+        <v>0.06644358997326509</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>61</v>
@@ -10226,19 +10226,19 @@
         <v>38988</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30249</v>
+        <v>30648</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49910</v>
+        <v>49084</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05038060146131394</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03908846286976522</v>
+        <v>0.03960304887023491</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06449377277107153</v>
+        <v>0.06342741876483256</v>
       </c>
     </row>
     <row r="30">
@@ -10255,19 +10255,19 @@
         <v>285523</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>276304</v>
+        <v>276057</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>292524</v>
+        <v>292547</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9204524865079814</v>
+        <v>0.9204524865079816</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8907347249327887</v>
+        <v>0.8899383965306776</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9430225185072615</v>
+        <v>0.9430987269279565</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>825</v>
@@ -10276,19 +10276,19 @@
         <v>432067</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>423193</v>
+        <v>423047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>440560</v>
+        <v>439377</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9318407402520325</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9127027022162919</v>
+        <v>0.912388304378001</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9501595564998642</v>
+        <v>0.947607668563204</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1250</v>
@@ -10297,19 +10297,19 @@
         <v>717589</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>704268</v>
+        <v>704141</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>728196</v>
+        <v>727759</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9272758579438128</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9100628160319502</v>
+        <v>0.9098981463731544</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9409824935670097</v>
+        <v>0.9404177839391541</v>
       </c>
     </row>
     <row r="31">
@@ -10401,19 +10401,19 @@
         <v>298144</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>260752</v>
+        <v>259422</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>336901</v>
+        <v>340875</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.084449681598739</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07385815589761723</v>
+        <v>0.07348164951486247</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0954274048436792</v>
+        <v>0.09655324459496323</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>370</v>
@@ -10422,19 +10422,19 @@
         <v>294912</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>264579</v>
+        <v>266163</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>328450</v>
+        <v>328831</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07917239905730378</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0710292513668261</v>
+        <v>0.07145439944339631</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08817607678706811</v>
+        <v>0.08827838783823136</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>617</v>
@@ -10443,19 +10443,19 @@
         <v>593056</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>543001</v>
+        <v>546157</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>646550</v>
+        <v>641101</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.08174030595764763</v>
+        <v>0.08174030595764765</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07484122277865062</v>
+        <v>0.07527619516409424</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08911333529753702</v>
+        <v>0.08836221359041679</v>
       </c>
     </row>
     <row r="33">
@@ -10472,19 +10472,19 @@
         <v>180621</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>156349</v>
+        <v>153159</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>214113</v>
+        <v>208972</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05116100220383606</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0442859100870692</v>
+        <v>0.04338230254636698</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06064764265330317</v>
+        <v>0.0591915487766498</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>261</v>
@@ -10493,19 +10493,19 @@
         <v>175763</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>154268</v>
+        <v>154383</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>199160</v>
+        <v>200021</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.04718554101116893</v>
+        <v>0.04718554101116892</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04141489500045614</v>
+        <v>0.04144576567023406</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0534667377085674</v>
+        <v>0.05369784878692803</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>432</v>
@@ -10514,19 +10514,19 @@
         <v>356384</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>319861</v>
+        <v>320033</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>394377</v>
+        <v>394543</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.04911998627699371</v>
+        <v>0.04911998627699373</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04408602274841918</v>
+        <v>0.04410982071330258</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05435649410809792</v>
+        <v>0.05437937272034917</v>
       </c>
     </row>
     <row r="34">
@@ -10543,19 +10543,19 @@
         <v>3051674</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2999446</v>
+        <v>3006683</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3092343</v>
+        <v>3099651</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8643893161974251</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8495957993274549</v>
+        <v>0.8516457399943007</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8759087990407076</v>
+        <v>0.8779788571428042</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4717</v>
@@ -10564,19 +10564,19 @@
         <v>3254260</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3217656</v>
+        <v>3214097</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3290464</v>
+        <v>3287267</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.8736420599315273</v>
+        <v>0.8736420599315272</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8638153877592721</v>
+        <v>0.8628598719450427</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8833615258601194</v>
+        <v>0.8825030915490736</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7673</v>
@@ -10585,19 +10585,19 @@
         <v>6305933</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6243540</v>
+        <v>6248097</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6358956</v>
+        <v>6359983</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.8691397077653585</v>
+        <v>0.8691397077653586</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8605401772299942</v>
+        <v>0.8611683069835973</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8764478731100651</v>
+        <v>0.8765894324259029</v>
       </c>
     </row>
     <row r="35">
